--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2370785_cognizant_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2370785_cognizant_com/Documents/Documents/Testing_Tut/IRCTC/Hackathon_Project/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC9C4FDC-441F-4F0C-962F-FA4DE224981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{CC9C4FDC-441F-4F0C-962F-FA4DE224981F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E6BAE52-E90B-4418-86DF-224DB242B4BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8DC8B4A-82CE-4B57-9AED-38FF74012428}"/>
   </bookViews>
@@ -462,13 +462,13 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -511,7 +511,7 @@
         <v>10</v>
       </c>
       <c r="F2">
-        <v>987654321</v>
+        <v>9876543210</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
